--- a/prot/356379915/Переход трубопровода через р. Енисей/Compression/1057.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Compression/1057.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -494,10 +494,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -515,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1409,59 +1412,59 @@
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="12.5703125" customWidth="1" style="72" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="72" min="2" max="2"/>
-    <col width="10.85546875" customWidth="1" style="72" min="3" max="3"/>
-    <col width="13.140625" customWidth="1" style="72" min="4" max="4"/>
-    <col width="10.28515625" customWidth="1" style="72" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="72" min="6" max="7"/>
-    <col width="10" customWidth="1" style="72" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="72" min="9" max="13"/>
-    <col width="9.140625" customWidth="1" style="72" min="14" max="16384"/>
+    <col width="12.5703125" customWidth="1" style="73" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="73" min="2" max="2"/>
+    <col width="10.85546875" customWidth="1" style="73" min="3" max="3"/>
+    <col width="13.140625" customWidth="1" style="73" min="4" max="4"/>
+    <col width="10.28515625" customWidth="1" style="73" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="73" min="6" max="7"/>
+    <col width="10" customWidth="1" style="73" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="73" min="9" max="13"/>
+    <col width="9.140625" customWidth="1" style="73" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="inlineStr">
+      <c r="A1" s="72" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="73" t="inlineStr">
+      <c r="A2" s="72" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="73" t="inlineStr">
+      <c r="A3" s="72" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="73" t="n"/>
-      <c r="B4" s="73" t="n"/>
-      <c r="C4" s="73" t="n"/>
-      <c r="D4" s="73" t="n"/>
-      <c r="E4" s="73" t="n"/>
-      <c r="F4" s="73" t="n"/>
-      <c r="G4" s="73" t="n"/>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="73" t="n"/>
-      <c r="J4" s="73" t="n"/>
-      <c r="K4" s="73" t="n"/>
-      <c r="L4" s="73" t="n"/>
+      <c r="A4" s="72" t="n"/>
+      <c r="B4" s="72" t="n"/>
+      <c r="C4" s="72" t="n"/>
+      <c r="D4" s="72" t="n"/>
+      <c r="E4" s="72" t="n"/>
+      <c r="F4" s="72" t="n"/>
+      <c r="G4" s="72" t="n"/>
+      <c r="H4" s="72" t="n"/>
+      <c r="I4" s="72" t="n"/>
+      <c r="J4" s="72" t="n"/>
+      <c r="K4" s="72" t="n"/>
+      <c r="L4" s="72" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="73" t="inlineStr">
+      <c r="A5" s="72" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -1475,7 +1478,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="73" t="inlineStr">
+      <c r="A7" s="72" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -1761,22 +1764,22 @@
 m0, Мпа-1</t>
         </is>
       </c>
-      <c r="F29" s="69" t="inlineStr">
+      <c r="F29" s="80" t="inlineStr">
         <is>
           <t>sigma</t>
         </is>
       </c>
-      <c r="G29" s="72" t="inlineStr">
+      <c r="G29" s="73" t="inlineStr">
         <is>
           <t>otn_vert</t>
         </is>
       </c>
-      <c r="H29" s="72" t="inlineStr">
+      <c r="H29" s="73" t="inlineStr">
         <is>
           <t>koef_e</t>
         </is>
       </c>
-      <c r="I29" s="72" t="inlineStr">
+      <c r="I29" s="73" t="inlineStr">
         <is>
           <t>m0</t>
         </is>
@@ -2004,7 +2007,7 @@
         </is>
       </c>
       <c r="K37" s="32" t="n">
-        <v>0.2</v>
+        <v>0.1507017542220705</v>
       </c>
       <c r="L37" s="32" t="n"/>
       <c r="T37" s="31" t="n"/>
@@ -2261,11 +2264,18 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="80" t="inlineStr">
+        <is>
+          <t>Инженерно-геологический элемент: 2.2.1.1</t>
+        </is>
+      </c>
+    </row>
     <row r="56">
       <c r="G56" s="31" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A54:L54"/>
     <mergeCell ref="A2:L2"/>
@@ -2278,6 +2288,7 @@
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="70" horizontalDpi="4294967293" verticalDpi="4294967293"/>
